--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2677,28 +2677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.63023676982658</v>
+        <v>131.0783670971885</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.2137529735987</v>
+        <v>179.3472046317235</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.5954579530014</v>
+        <v>162.2305591371046</v>
       </c>
       <c r="AD2" t="n">
-        <v>96630.23676982659</v>
+        <v>131078.3670971885</v>
       </c>
       <c r="AE2" t="n">
-        <v>132213.7529735987</v>
+        <v>179347.2046317235</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.594099024966256e-06</v>
+        <v>6.623149079690727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119595.4579530014</v>
+        <v>162230.5591371046</v>
       </c>
     </row>
     <row r="3">
@@ -2783,28 +2783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.37725931887448</v>
+        <v>91.64408441839227</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7662474931434</v>
+        <v>125.3914793528529</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.05381966224867</v>
+        <v>113.4242925514962</v>
       </c>
       <c r="AD3" t="n">
-        <v>74377.25931887448</v>
+        <v>91644.08441839227</v>
       </c>
       <c r="AE3" t="n">
-        <v>101766.2474931434</v>
+        <v>125391.4793528529</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.032157686789224e-06</v>
+        <v>8.696347077999878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.04050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>92053.81966224867</v>
+        <v>113424.2925514962</v>
       </c>
     </row>
     <row r="4">
@@ -2889,28 +2889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.77781495326455</v>
+        <v>88.59257748514305</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.89537598075455</v>
+        <v>121.2162729437987</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.69764185208915</v>
+        <v>109.6475619821819</v>
       </c>
       <c r="AD4" t="n">
-        <v>62777.81495326455</v>
+        <v>88592.57748514305</v>
       </c>
       <c r="AE4" t="n">
-        <v>85895.37598075456</v>
+        <v>121216.2729437987</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.488227419433687e-06</v>
+        <v>9.353846581955642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.681712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>77697.64185208915</v>
+        <v>109647.5619821819</v>
       </c>
     </row>
     <row r="5">
@@ -2995,28 +2995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.04096328534163</v>
+        <v>78.22244753028779</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.5189389042159</v>
+        <v>107.0274036417279</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.54800859478421</v>
+        <v>96.81285845209297</v>
       </c>
       <c r="AD5" t="n">
-        <v>61040.96328534163</v>
+        <v>78222.4475302878</v>
       </c>
       <c r="AE5" t="n">
-        <v>83518.9389042159</v>
+        <v>107027.4036417279</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.784851308191854e-06</v>
+        <v>9.78147868678546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>75548.0085947842</v>
+        <v>96812.85845209297</v>
       </c>
     </row>
     <row r="6">
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.79238192328854</v>
+        <v>76.97386616823472</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.81057480113365</v>
+        <v>105.3190395386456</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.00268836399549</v>
+        <v>95.26753822130428</v>
       </c>
       <c r="AD6" t="n">
-        <v>59792.38192328854</v>
+        <v>76973.86616823472</v>
       </c>
       <c r="AE6" t="n">
-        <v>81810.57480113365</v>
+        <v>105319.0395386456</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.96325629227675e-06</v>
+        <v>1.003867880365991e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.363425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>74002.68836399549</v>
+        <v>95267.53822130428</v>
       </c>
     </row>
     <row r="7">
@@ -3207,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.02517868946049</v>
+        <v>76.20666293440667</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.76085348999273</v>
+        <v>104.2693182275047</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.05315098149642</v>
+        <v>94.31800083880518</v>
       </c>
       <c r="AD7" t="n">
-        <v>59025.17868946049</v>
+        <v>76206.66293440666</v>
       </c>
       <c r="AE7" t="n">
-        <v>80760.85348999273</v>
+        <v>104269.3182275047</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.029271913411491e-06</v>
+        <v>1.013385117543241e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>73053.15098149641</v>
+        <v>94318.00083880518</v>
       </c>
     </row>
     <row r="8">
@@ -3313,28 +3313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.72144443792094</v>
+        <v>75.90292868286711</v>
       </c>
       <c r="AB8" t="n">
-        <v>80.34527088722706</v>
+        <v>103.853735624739</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.67723099906472</v>
+        <v>93.94208085637349</v>
       </c>
       <c r="AD8" t="n">
-        <v>58721.44443792095</v>
+        <v>75902.92868286712</v>
       </c>
       <c r="AE8" t="n">
-        <v>80345.27088722706</v>
+        <v>103853.735624739</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.086989628309726e-06</v>
+        <v>1.021706075107122e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>72677.23099906472</v>
+        <v>93942.08085637349</v>
       </c>
     </row>
     <row r="9">
@@ -3419,28 +3419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.7617990691347</v>
+        <v>75.94328331408084</v>
       </c>
       <c r="AB9" t="n">
-        <v>80.40048587397435</v>
+        <v>103.9089506114863</v>
       </c>
       <c r="AC9" t="n">
-        <v>72.7271763449716</v>
+        <v>93.99202620228037</v>
       </c>
       <c r="AD9" t="n">
-        <v>58761.79906913469</v>
+        <v>75943.28331408085</v>
       </c>
       <c r="AE9" t="n">
-        <v>80400.48587397435</v>
+        <v>103908.9506114863</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.083260822342687e-06</v>
+        <v>1.021168506420101e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>72727.17634497159</v>
+        <v>93992.02620228037</v>
       </c>
     </row>
   </sheetData>
@@ -3716,28 +3716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.1969753037679</v>
+        <v>102.4492459687766</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.6243073007623</v>
+        <v>140.1755780761659</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.54367165665066</v>
+        <v>126.7974176422738</v>
       </c>
       <c r="AD2" t="n">
-        <v>77196.9753037679</v>
+        <v>102449.2459687766</v>
       </c>
       <c r="AE2" t="n">
-        <v>105624.3073007623</v>
+        <v>140175.5780761659</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.426489155886142e-06</v>
+        <v>7.94417598537754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.792824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>95543.67165665067</v>
+        <v>126797.4176422738</v>
       </c>
     </row>
     <row r="3">
@@ -3822,28 +3822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.19155605008714</v>
+        <v>85.35848586052427</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.35674245173882</v>
+        <v>116.7912461049448</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.4967305405782</v>
+        <v>105.6448534942625</v>
       </c>
       <c r="AD3" t="n">
-        <v>60191.55605008714</v>
+        <v>85358.48586052426</v>
       </c>
       <c r="AE3" t="n">
-        <v>82356.74245173883</v>
+        <v>116791.2461049448</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.729963568717616e-06</v>
+        <v>9.852413490420321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>74496.7305405782</v>
+        <v>105644.8534942625</v>
       </c>
     </row>
     <row r="4">
@@ -3928,28 +3928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.00519747942728</v>
+        <v>74.75479324341254</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.36527020003084</v>
+        <v>102.2828060643173</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.79076020201458</v>
+        <v>92.52107860838444</v>
       </c>
       <c r="AD4" t="n">
-        <v>58005.19747942728</v>
+        <v>74754.79324341254</v>
       </c>
       <c r="AE4" t="n">
-        <v>79365.27020003083</v>
+        <v>102282.8060643173</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.158297691373641e-06</v>
+        <v>1.047947853250757e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.392361111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>71790.76020201459</v>
+        <v>92521.07860838444</v>
       </c>
     </row>
     <row r="5">
@@ -4034,28 +4034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.64848371921555</v>
+        <v>73.3980794832008</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.50895457932326</v>
+        <v>100.4264904436097</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.11160873879142</v>
+        <v>90.84192714516128</v>
       </c>
       <c r="AD5" t="n">
-        <v>56648.48371921555</v>
+        <v>73398.0794832008</v>
       </c>
       <c r="AE5" t="n">
-        <v>77508.95457932325</v>
+        <v>100426.4904436097</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.380070888821875e-06</v>
+        <v>1.080414615069633e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.25925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>70111.60873879142</v>
+        <v>90841.92714516127</v>
       </c>
     </row>
     <row r="6">
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.84749803201878</v>
+        <v>72.59709379600403</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.41301062510664</v>
+        <v>99.33054648939309</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.12026013739786</v>
+        <v>89.85057854376772</v>
       </c>
       <c r="AD6" t="n">
-        <v>55847.49803201878</v>
+        <v>72597.09379600403</v>
       </c>
       <c r="AE6" t="n">
-        <v>76413.01062510663</v>
+        <v>99330.54648939309</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.517035668529617e-06</v>
+        <v>1.100465743571687e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>69120.26013739787</v>
+        <v>89850.57854376773</v>
       </c>
     </row>
     <row r="7">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.91485224878289</v>
+        <v>72.66444801276815</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.50516763594156</v>
+        <v>99.42270350022804</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.20362181246193</v>
+        <v>89.93394021883178</v>
       </c>
       <c r="AD7" t="n">
-        <v>55914.85224878289</v>
+        <v>72664.44801276815</v>
       </c>
       <c r="AE7" t="n">
-        <v>76505.16763594156</v>
+        <v>99422.70350022803</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.515351452674425e-06</v>
+        <v>1.10021918070633e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>69203.62181246193</v>
+        <v>89933.94021883178</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.97318045620999</v>
+        <v>66.42250657866889</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.74375427817368</v>
+        <v>90.88220385507664</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.08750825585402</v>
+        <v>82.2085338731444</v>
       </c>
       <c r="AD2" t="n">
-        <v>50973.18045620999</v>
+        <v>66422.50657866889</v>
       </c>
       <c r="AE2" t="n">
-        <v>69743.75427817368</v>
+        <v>90882.20385507664</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.957608610745539e-06</v>
+        <v>1.231140275165121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>63087.50825585402</v>
+        <v>82208.53387314441</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.20185921800198</v>
+        <v>64.65118534046088</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.32015441488088</v>
+        <v>88.45860399178383</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.89521336196933</v>
+        <v>80.01623897925973</v>
       </c>
       <c r="AD3" t="n">
-        <v>49201.85921800198</v>
+        <v>64651.18534046088</v>
       </c>
       <c r="AE3" t="n">
-        <v>67320.15441488088</v>
+        <v>88458.60399178384</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.513589995831453e-06</v>
+        <v>1.31715745807822e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.120370370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>60895.21336196933</v>
+        <v>80016.23897925972</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.59830294461902</v>
+        <v>80.57735862528082</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.44029502970078</v>
+        <v>110.2494968932409</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.0495019602206</v>
+        <v>99.72743964591895</v>
       </c>
       <c r="AD2" t="n">
-        <v>56598.30294461902</v>
+        <v>80577.35862528082</v>
       </c>
       <c r="AE2" t="n">
-        <v>77440.29502970078</v>
+        <v>110249.4968932409</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.93788149211627e-06</v>
+        <v>1.048517845278287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>70049.5019602206</v>
+        <v>99727.43964591894</v>
       </c>
     </row>
     <row r="3">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.25144062968817</v>
+        <v>68.20912030715655</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.4927262403845</v>
+        <v>93.32672757822709</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.66956078868955</v>
+        <v>84.41975568306876</v>
       </c>
       <c r="AD3" t="n">
-        <v>52251.44062968817</v>
+        <v>68209.12030715655</v>
       </c>
       <c r="AE3" t="n">
-        <v>71492.72624038449</v>
+        <v>93326.72757822709</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.041504872793222e-06</v>
+        <v>1.215307781142868e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.172453703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>64669.56078868955</v>
+        <v>84419.75568306875</v>
       </c>
     </row>
     <row r="4">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.56893119641346</v>
+        <v>67.52661087388185</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.55888672358738</v>
+        <v>92.39288806142999</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.82484560472326</v>
+        <v>83.57504049910246</v>
       </c>
       <c r="AD4" t="n">
-        <v>51568.93119641346</v>
+        <v>67526.61087388184</v>
       </c>
       <c r="AE4" t="n">
-        <v>70558.88672358738</v>
+        <v>92392.88806142999</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.19711060774284e-06</v>
+        <v>1.238824382011262e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>63824.84560472326</v>
+        <v>83575.04049910246</v>
       </c>
     </row>
   </sheetData>
@@ -5455,28 +5455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.24427687644545</v>
+        <v>62.27664880470697</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.64170389272681</v>
+        <v>85.20965834640839</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.47239039841988</v>
+        <v>77.07736814635403</v>
       </c>
       <c r="AD2" t="n">
-        <v>47244.27687644544</v>
+        <v>62276.64880470697</v>
       </c>
       <c r="AE2" t="n">
-        <v>64641.70389272681</v>
+        <v>85209.6583464084</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.727675838384386e-06</v>
+        <v>1.379398684616921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.172453703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>58472.39039841988</v>
+        <v>77077.36814635403</v>
       </c>
     </row>
     <row r="3">
@@ -5561,28 +5561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.30797188912504</v>
+        <v>62.34034381738657</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.72885421910064</v>
+        <v>85.29680867278221</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.55122321996087</v>
+        <v>77.15620096789502</v>
       </c>
       <c r="AD3" t="n">
-        <v>47307.97188912504</v>
+        <v>62340.34381738657</v>
       </c>
       <c r="AE3" t="n">
-        <v>64728.85421910064</v>
+        <v>85296.80867278221</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.726668430773328e-06</v>
+        <v>1.379239465053855e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.17824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>58551.22321996087</v>
+        <v>77156.20096789501</v>
       </c>
     </row>
   </sheetData>
@@ -5858,28 +5858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.68617336972424</v>
+        <v>113.4122222703418</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.0301379102704</v>
+        <v>155.1756059043398</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.62445457290163</v>
+        <v>140.3658638672029</v>
       </c>
       <c r="AD2" t="n">
-        <v>79686.17336972425</v>
+        <v>113412.2222703418</v>
       </c>
       <c r="AE2" t="n">
-        <v>109030.1379102704</v>
+        <v>155175.6059043398</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202489293321402e-06</v>
+        <v>7.584637808926448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98624.45457290162</v>
+        <v>140365.8638672029</v>
       </c>
     </row>
     <row r="3">
@@ -5964,28 +5964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.58745956243899</v>
+        <v>86.92466666518801</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.26667922025432</v>
+        <v>118.9341637769052</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.22438562452027</v>
+        <v>107.5832541112156</v>
       </c>
       <c r="AD3" t="n">
-        <v>61587.45956243899</v>
+        <v>86924.66666518801</v>
       </c>
       <c r="AE3" t="n">
-        <v>84266.67922025431</v>
+        <v>118934.1637769052</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.537704783821655e-06</v>
+        <v>9.531230165264981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.768518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>76224.38562452026</v>
+        <v>107583.2541112156</v>
       </c>
     </row>
     <row r="4">
@@ -6070,28 +6070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.33481018485266</v>
+        <v>76.19792414371251</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.18450496196559</v>
+        <v>104.2573614285487</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.4363697515829</v>
+        <v>94.3071851799601</v>
       </c>
       <c r="AD4" t="n">
-        <v>59334.81018485266</v>
+        <v>76197.92414371252</v>
       </c>
       <c r="AE4" t="n">
-        <v>81184.50496196559</v>
+        <v>104257.3614285487</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.951261386206124e-06</v>
+        <v>1.013414866556887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.484953703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>73436.3697515829</v>
+        <v>94307.1851799601</v>
       </c>
     </row>
     <row r="5">
@@ -6176,28 +6176,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.89485152778752</v>
+        <v>74.75796548664735</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.21429000087758</v>
+        <v>102.2871464674607</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.65418934116643</v>
+        <v>92.52500476954363</v>
       </c>
       <c r="AD5" t="n">
-        <v>57894.85152778752</v>
+        <v>74757.96548664736</v>
       </c>
       <c r="AE5" t="n">
-        <v>79214.29000087758</v>
+        <v>102287.1464674607</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.193763526180041e-06</v>
+        <v>1.048768921046781e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.328703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>71654.18934116644</v>
+        <v>92525.00476954362</v>
       </c>
     </row>
     <row r="6">
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.61605421848214</v>
+        <v>73.47916817734199</v>
       </c>
       <c r="AB6" t="n">
-        <v>77.46458310573124</v>
+        <v>100.5374395723143</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.07147201636323</v>
+        <v>90.94228744474044</v>
       </c>
       <c r="AD6" t="n">
-        <v>56616.05421848214</v>
+        <v>73479.16817734198</v>
       </c>
       <c r="AE6" t="n">
-        <v>77464.58310573123</v>
+        <v>100537.4395723143</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.396099903183144e-06</v>
+        <v>1.078267264024805e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.212962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>70071.47201636323</v>
+        <v>90942.28744474045</v>
       </c>
     </row>
     <row r="7">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.65258599794318</v>
+        <v>73.51569995680303</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.51456749805817</v>
+        <v>100.5874239646413</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.11668596844005</v>
+        <v>90.98750139681725</v>
       </c>
       <c r="AD7" t="n">
-        <v>56652.58599794318</v>
+        <v>73515.69995680303</v>
       </c>
       <c r="AE7" t="n">
-        <v>77514.56749805817</v>
+        <v>100587.4239646413</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.382854892873733e-06</v>
+        <v>1.076336292132151e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH7" t="n">
-        <v>70116.68596844006</v>
+        <v>90987.50139681726</v>
       </c>
     </row>
   </sheetData>
@@ -6685,28 +6685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.18065535122285</v>
+        <v>60.96612796728967</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.18640999824802</v>
+        <v>83.41654592055606</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.15598771071187</v>
+        <v>75.45538785377538</v>
       </c>
       <c r="AD2" t="n">
-        <v>46180.65535122286</v>
+        <v>60966.12796728967</v>
       </c>
       <c r="AE2" t="n">
-        <v>63186.40999824803</v>
+        <v>83416.54592055606</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.760733748671896e-06</v>
+        <v>1.403675334138727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>57155.98771071187</v>
+        <v>75455.38785377538</v>
       </c>
     </row>
   </sheetData>
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.78932556132764</v>
+        <v>95.31837182665382</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.85707823760426</v>
+        <v>130.418801482954</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.61317463039437</v>
+        <v>117.971814113393</v>
       </c>
       <c r="AD2" t="n">
-        <v>70789.32556132764</v>
+        <v>95318.37182665382</v>
       </c>
       <c r="AE2" t="n">
-        <v>96857.07823760426</v>
+        <v>130418.801482954</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.108353968669864e-06</v>
+        <v>9.069947836038261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>87613.17463039437</v>
+        <v>117971.814113393</v>
       </c>
     </row>
     <row r="3">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.38982520257417</v>
+        <v>72.77099950049916</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.1550465856463</v>
+        <v>99.56849194646142</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.7914772273179</v>
+        <v>90.0658148203721</v>
       </c>
       <c r="AD3" t="n">
-        <v>56389.82520257417</v>
+        <v>72770.99950049917</v>
       </c>
       <c r="AE3" t="n">
-        <v>77155.0465856463</v>
+        <v>99568.49194646142</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.30574225854026e-06</v>
+        <v>1.084788169257481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.432870370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>69791.4772273179</v>
+        <v>90065.81482037209</v>
       </c>
     </row>
     <row r="4">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.47112882314896</v>
+        <v>70.85230312107396</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.52980155240785</v>
+        <v>96.94324691322298</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.41678189549634</v>
+        <v>87.69111948855054</v>
       </c>
       <c r="AD4" t="n">
-        <v>54471.12882314896</v>
+        <v>70852.30312107396</v>
       </c>
       <c r="AE4" t="n">
-        <v>74529.80155240785</v>
+        <v>96943.24691322297</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.696680495016106e-06</v>
+        <v>1.142836367350376e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.207175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>67416.78189549634</v>
+        <v>87691.11948855054</v>
       </c>
     </row>
     <row r="5">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.85332940348706</v>
+        <v>70.23450370141207</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.68450113104007</v>
+        <v>96.09794649185518</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.65215575995703</v>
+        <v>86.92649335301124</v>
       </c>
       <c r="AD5" t="n">
-        <v>53853.32940348706</v>
+        <v>70234.50370141206</v>
       </c>
       <c r="AE5" t="n">
-        <v>73684.50113104006</v>
+        <v>96097.94649185518</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.815182248541217e-06</v>
+        <v>1.160432019607344e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.143518518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>66652.15575995702</v>
+        <v>86926.49335301123</v>
       </c>
     </row>
   </sheetData>
@@ -7597,28 +7597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.21459351181636</v>
+        <v>100.2901118767561</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9119250765033</v>
+        <v>137.2213555571915</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.0901553850217</v>
+        <v>124.125141974232</v>
       </c>
       <c r="AD2" t="n">
-        <v>75214.59351181636</v>
+        <v>100290.1118767561</v>
       </c>
       <c r="AE2" t="n">
-        <v>102911.9250765033</v>
+        <v>137221.3555571915</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.614817054088543e-06</v>
+        <v>8.256265508943038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.653935185185184</v>
       </c>
       <c r="AH2" t="n">
-        <v>93090.1553850217</v>
+        <v>124125.141974232</v>
       </c>
     </row>
     <row r="3">
@@ -7703,28 +7703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.02551823309733</v>
+        <v>75.82787133096213</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.76131806857624</v>
+        <v>103.751038844566</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.05357122135197</v>
+        <v>93.84918531276431</v>
       </c>
       <c r="AD3" t="n">
-        <v>59025.51823309733</v>
+        <v>75827.87133096212</v>
       </c>
       <c r="AE3" t="n">
-        <v>80761.31806857625</v>
+        <v>103751.038844566</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.896174522559075e-06</v>
+        <v>1.014042796154803e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>73053.57122135197</v>
+        <v>93849.18531276431</v>
       </c>
     </row>
     <row r="4">
@@ -7809,28 +7809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.89555256985005</v>
+        <v>73.52731346712264</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.84700508066962</v>
+        <v>100.6033140818125</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.41739617474626</v>
+        <v>91.00187498350756</v>
       </c>
       <c r="AD4" t="n">
-        <v>56895.55256985006</v>
+        <v>73527.31346712264</v>
       </c>
       <c r="AE4" t="n">
-        <v>77847.00508066962</v>
+        <v>100603.3140818125</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.330661269347737e-06</v>
+        <v>1.077931573065032e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.328703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>70417.39617474626</v>
+        <v>91001.87498350756</v>
       </c>
     </row>
     <row r="5">
@@ -7915,28 +7915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.34038786421996</v>
+        <v>71.97214876149255</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.71916012140296</v>
+        <v>98.47546912254582</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.49262975194216</v>
+        <v>89.07710856070348</v>
       </c>
       <c r="AD5" t="n">
-        <v>55340.38786421996</v>
+        <v>71972.14876149254</v>
       </c>
       <c r="AE5" t="n">
-        <v>75719.16012140297</v>
+        <v>98475.46912254582</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.593426480640907e-06</v>
+        <v>1.116569685937653e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.17824074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>68492.62975194216</v>
+        <v>89077.10856070348</v>
       </c>
     </row>
     <row r="6">
@@ -8021,28 +8021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.28995298164888</v>
+        <v>71.92171387892148</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.65015289003927</v>
+        <v>98.40646189118213</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.43020847388755</v>
+        <v>89.01468728264884</v>
       </c>
       <c r="AD6" t="n">
-        <v>55289.95298164888</v>
+        <v>71921.71387892148</v>
       </c>
       <c r="AE6" t="n">
-        <v>75650.15289003926</v>
+        <v>98406.46189118213</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.579440855744275e-06</v>
+        <v>1.114513180243118e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.189814814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>68430.20847388754</v>
+        <v>89014.68728264884</v>
       </c>
     </row>
   </sheetData>
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.64555109928649</v>
+        <v>119.3062853782531</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.1299743641292</v>
+        <v>163.2401230762924</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.901429442399</v>
+        <v>147.6607148388879</v>
       </c>
       <c r="AD2" t="n">
-        <v>93645.55109928649</v>
+        <v>119306.2853782531</v>
       </c>
       <c r="AE2" t="n">
-        <v>128129.9743641292</v>
+        <v>163240.1230762924</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789850853757171e-06</v>
+        <v>6.929824526243874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.394675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>115901.4294423991</v>
+        <v>147660.7148388879</v>
       </c>
     </row>
     <row r="3">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.30717306383023</v>
+        <v>89.96781783424579</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.98791121814749</v>
+        <v>123.0979374607624</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.59046846331761</v>
+        <v>111.3496430785799</v>
       </c>
       <c r="AD3" t="n">
-        <v>64307.17306383023</v>
+        <v>89967.8178342458</v>
       </c>
       <c r="AE3" t="n">
-        <v>87987.91121814749</v>
+        <v>123097.9374607624</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.191602188379586e-06</v>
+        <v>8.957839818357175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>79590.46846331761</v>
+        <v>111349.6430785799</v>
       </c>
     </row>
     <row r="4">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.53042846158456</v>
+        <v>78.7797597328143</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.18864675203073</v>
+        <v>107.7899427841034</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.15380046554466</v>
+        <v>97.50262192895082</v>
       </c>
       <c r="AD4" t="n">
-        <v>61530.42846158456</v>
+        <v>78779.7597328143</v>
       </c>
       <c r="AE4" t="n">
-        <v>84188.64675203073</v>
+        <v>107789.9427841034</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.66031725755693e-06</v>
+        <v>9.635963893902747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>76153.80046554466</v>
+        <v>97502.62192895082</v>
       </c>
     </row>
     <row r="5">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.08661950983294</v>
+        <v>77.16535858047048</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.21316364788966</v>
+        <v>105.5810479051154</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.36685469625424</v>
+        <v>95.50454087700936</v>
       </c>
       <c r="AD5" t="n">
-        <v>60086.61950983293</v>
+        <v>77165.35858047048</v>
       </c>
       <c r="AE5" t="n">
-        <v>82213.16364788965</v>
+        <v>105581.0479051154</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.88800457543944e-06</v>
+        <v>9.965375645531559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.450231481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>74366.85469625423</v>
+        <v>95504.54087700936</v>
       </c>
     </row>
     <row r="6">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.98870151052076</v>
+        <v>76.06744058115829</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.71094380450785</v>
+        <v>104.0788280617336</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.00800460634551</v>
+        <v>94.14569078710063</v>
       </c>
       <c r="AD6" t="n">
-        <v>58988.70151052075</v>
+        <v>76067.4405811583</v>
       </c>
       <c r="AE6" t="n">
-        <v>80710.94380450784</v>
+        <v>104078.8280617336</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.066300526759668e-06</v>
+        <v>1.022332932595142e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.334490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>73008.00460634551</v>
+        <v>94145.69078710064</v>
       </c>
     </row>
     <row r="7">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.94394471781314</v>
+        <v>75.02268378845069</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.28146146930929</v>
+        <v>102.6493457265351</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.7149500589268</v>
+        <v>92.85263623968191</v>
       </c>
       <c r="AD7" t="n">
-        <v>57943.94471781314</v>
+        <v>75022.6837884507</v>
       </c>
       <c r="AE7" t="n">
-        <v>79281.46146930929</v>
+        <v>102649.3457265351</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.203569351514225e-06</v>
+        <v>1.042192608762859e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>71714.9500589268</v>
+        <v>92852.63623968192</v>
       </c>
     </row>
     <row r="8">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.99419519565267</v>
+        <v>75.07293426629022</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.35021638998393</v>
+        <v>102.7181006472097</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.77714310647038</v>
+        <v>92.91482928722553</v>
       </c>
       <c r="AD8" t="n">
-        <v>57994.19519565268</v>
+        <v>75072.93426629022</v>
       </c>
       <c r="AE8" t="n">
-        <v>79350.21638998392</v>
+        <v>102718.1006472097</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.197852022908945e-06</v>
+        <v>1.04136544137909e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>71777.14310647038</v>
+        <v>92914.82928722553</v>
       </c>
     </row>
   </sheetData>
@@ -9251,28 +9251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.90993395285186</v>
+        <v>83.10164192780054</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.54912349221152</v>
+        <v>113.7033326712664</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.81180363613893</v>
+        <v>102.8516461847797</v>
       </c>
       <c r="AD2" t="n">
-        <v>66909.93395285186</v>
+        <v>83101.64192780055</v>
       </c>
       <c r="AE2" t="n">
-        <v>91549.12349221153</v>
+        <v>113703.3326712664</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.607763632068596e-06</v>
+        <v>9.922776979456195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>82811.80363613894</v>
+        <v>102851.6461847797</v>
       </c>
     </row>
     <row r="3">
@@ -9357,28 +9357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.82328150587498</v>
+        <v>69.92964862625205</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.64338827190757</v>
+        <v>95.68083032876477</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.61496665439785</v>
+        <v>86.54918617109981</v>
       </c>
       <c r="AD3" t="n">
-        <v>53823.28150587498</v>
+        <v>69929.64862625205</v>
       </c>
       <c r="AE3" t="n">
-        <v>73643.38827190756</v>
+        <v>95680.83032876477</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.725981170365998e-06</v>
+        <v>1.160198705186129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>66614.96665439785</v>
+        <v>86549.18617109981</v>
       </c>
     </row>
     <row r="4">
@@ -9463,28 +9463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.27360067141421</v>
+        <v>68.37996779179127</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.52304658710609</v>
+        <v>93.5604886439633</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.69698740407492</v>
+        <v>84.63120692077686</v>
       </c>
       <c r="AD4" t="n">
-        <v>52273.60067141421</v>
+        <v>68379.96779179128</v>
       </c>
       <c r="AE4" t="n">
-        <v>71523.04658710609</v>
+        <v>93560.4886439633</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.087247046503259e-06</v>
+        <v>1.214449445963242e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>64696.98740407491</v>
+        <v>84631.20692077687</v>
       </c>
     </row>
   </sheetData>
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.83073372845924</v>
+        <v>68.63245856719152</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.2853406147305</v>
+        <v>93.90595766197258</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.38652915958949</v>
+        <v>84.94370486057628</v>
       </c>
       <c r="AD2" t="n">
-        <v>52830.73372845924</v>
+        <v>68632.45856719153</v>
       </c>
       <c r="AE2" t="n">
-        <v>72285.34061473051</v>
+        <v>93905.95766197258</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.599406494580985e-06</v>
+        <v>1.165556500449427e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>65386.52915958948</v>
+        <v>84943.70486057627</v>
       </c>
     </row>
     <row r="3">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.96148734999358</v>
+        <v>65.59261998813366</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.35951113749927</v>
+        <v>89.74671640989446</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.83537533772767</v>
+        <v>81.18141575606342</v>
       </c>
       <c r="AD3" t="n">
-        <v>49961.48734999358</v>
+        <v>65592.61998813367</v>
       </c>
       <c r="AE3" t="n">
-        <v>68359.51113749927</v>
+        <v>89746.71640989446</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.420233552601928e-06</v>
+        <v>1.291450583612804e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>61835.37533772767</v>
+        <v>81181.41575606342</v>
       </c>
     </row>
   </sheetData>
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.8842766614603</v>
+        <v>64.13554549562232</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.88562395026719</v>
+        <v>87.75308280765164</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.50215387503091</v>
+        <v>79.37805174673566</v>
       </c>
       <c r="AD2" t="n">
-        <v>48884.2766614603</v>
+        <v>64135.54549562233</v>
       </c>
       <c r="AE2" t="n">
-        <v>66885.62395026718</v>
+        <v>87753.08280765163</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.414122011685389e-06</v>
+        <v>1.314689967162595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.241898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>60502.1538750309</v>
+        <v>79378.05174673567</v>
       </c>
     </row>
     <row r="3">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.23334753077767</v>
+        <v>63.4846163649397</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.99499399670115</v>
+        <v>86.8624528540856</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.69652439422595</v>
+        <v>78.57242226593071</v>
       </c>
       <c r="AD3" t="n">
-        <v>48233.34753077767</v>
+        <v>63484.61636493971</v>
       </c>
       <c r="AE3" t="n">
-        <v>65994.99399670116</v>
+        <v>86862.4528540856</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.658443385311191e-06</v>
+        <v>1.352864699858786e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.126157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>59696.52439422595</v>
+        <v>78572.42226593071</v>
       </c>
     </row>
   </sheetData>
@@ -17707,28 +17707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.00021481788051</v>
+        <v>59.49847579018913</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.57127918316894</v>
+        <v>81.40843946360376</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.69500271377309</v>
+        <v>73.63893225867884</v>
       </c>
       <c r="AD2" t="n">
-        <v>45000.21481788051</v>
+        <v>59498.47579018914</v>
       </c>
       <c r="AE2" t="n">
-        <v>61571.27918316894</v>
+        <v>81408.43946360376</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.685494915612159e-06</v>
+        <v>1.415454376809653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>55695.00271377309</v>
+        <v>73638.93225867883</v>
       </c>
     </row>
   </sheetData>
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.89295885060885</v>
+        <v>97.61395356767991</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.73536210974819</v>
+        <v>133.5597176949431</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.21675912947856</v>
+        <v>120.8129656904145</v>
       </c>
       <c r="AD2" t="n">
-        <v>72892.95885060885</v>
+        <v>97613.95356767991</v>
       </c>
       <c r="AE2" t="n">
-        <v>99735.3621097482</v>
+        <v>133559.7176949431</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.862196862151223e-06</v>
+        <v>8.660697117916331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>90216.75912947857</v>
+        <v>120812.9656904145</v>
       </c>
     </row>
     <row r="3">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.68069272754334</v>
+        <v>74.36042486055712</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.92126848236416</v>
+        <v>101.7432138445896</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.38913338512155</v>
+        <v>92.03298431278499</v>
       </c>
       <c r="AD3" t="n">
-        <v>57680.69272754334</v>
+        <v>74360.42486055712</v>
       </c>
       <c r="AE3" t="n">
-        <v>78921.26848236416</v>
+        <v>101743.2138445896</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.10394408700305e-06</v>
+        <v>1.049523063228697e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.513888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>71389.13338512156</v>
+        <v>92032.98431278499</v>
       </c>
     </row>
     <row r="4">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.54194402491959</v>
+        <v>72.05108395734118</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.9949381525023</v>
+        <v>98.58347173988093</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.74208791481037</v>
+        <v>89.17480355982278</v>
       </c>
       <c r="AD4" t="n">
-        <v>55541.9440249196</v>
+        <v>72051.08395734118</v>
       </c>
       <c r="AE4" t="n">
-        <v>75994.93815250231</v>
+        <v>98583.47173988093</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.547310495876405e-06</v>
+        <v>1.115025165423561e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.247685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>68742.08791481037</v>
+        <v>89174.80355982277</v>
       </c>
     </row>
     <row r="5">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.45709619014456</v>
+        <v>70.96623612256614</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.51060148485517</v>
+        <v>97.09913507223379</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.39941425544342</v>
+        <v>87.83212990045583</v>
       </c>
       <c r="AD5" t="n">
-        <v>54457.09619014456</v>
+        <v>70966.23612256614</v>
       </c>
       <c r="AE5" t="n">
-        <v>74510.60148485517</v>
+        <v>97099.1350722338</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.723903713203773e-06</v>
+        <v>1.141114708376737e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>67399.41425544342</v>
+        <v>87832.12990045582</v>
       </c>
     </row>
   </sheetData>
@@ -18619,28 +18619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.50448941285997</v>
+        <v>117.006186588959</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.2004793077867</v>
+        <v>160.0930264395848</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.2515212826608</v>
+        <v>144.8139726882087</v>
       </c>
       <c r="AD2" t="n">
-        <v>91504.48941285997</v>
+        <v>117006.186588959</v>
       </c>
       <c r="AE2" t="n">
-        <v>125200.4793077867</v>
+        <v>160093.0264395848</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.942320708617645e-06</v>
+        <v>7.17708499835519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>113251.5212826608</v>
+        <v>144813.9726882087</v>
       </c>
     </row>
     <row r="3">
@@ -18725,28 +18725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.84712831106187</v>
+        <v>88.34873597860982</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.99021357478235</v>
+        <v>120.8826382370321</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.78342827924834</v>
+        <v>109.3457689035697</v>
       </c>
       <c r="AD3" t="n">
-        <v>62847.12831106188</v>
+        <v>88348.73597860982</v>
       </c>
       <c r="AE3" t="n">
-        <v>85990.21357478235</v>
+        <v>120882.6382370321</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.375481619144431e-06</v>
+        <v>9.258276867032569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.843749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>77783.42827924834</v>
+        <v>109345.7689035697</v>
       </c>
     </row>
     <row r="4">
@@ -18831,28 +18831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.25452679213123</v>
+        <v>77.39783332811589</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.44290179907657</v>
+        <v>105.8991301109058</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.57466696073143</v>
+        <v>95.79226576351036</v>
       </c>
       <c r="AD4" t="n">
-        <v>60254.52679213123</v>
+        <v>77397.8333281159</v>
       </c>
       <c r="AE4" t="n">
-        <v>82442.90179907657</v>
+        <v>105899.1301109058</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.841689946923527e-06</v>
+        <v>9.935290155461495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.513888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>74574.66696073144</v>
+        <v>95792.26576351035</v>
       </c>
     </row>
     <row r="5">
@@ -18937,28 +18937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.86960326717892</v>
+        <v>75.84231760257138</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.54798833372396</v>
+        <v>103.7708048707063</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.86060137698372</v>
+        <v>93.8670648971116</v>
       </c>
       <c r="AD5" t="n">
-        <v>58869.60326717891</v>
+        <v>75842.31760257139</v>
       </c>
       <c r="AE5" t="n">
-        <v>80547.98833372396</v>
+        <v>103770.8048707063</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.078317095657754e-06</v>
+        <v>1.027891276910993e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.363425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>72860.60137698373</v>
+        <v>93867.0648971116</v>
       </c>
     </row>
     <row r="6">
@@ -19043,28 +19043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.8047630703725</v>
+        <v>74.77747740576498</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.09102699902016</v>
+        <v>102.3138435360025</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.54269038720554</v>
+        <v>92.54915390733342</v>
       </c>
       <c r="AD6" t="n">
-        <v>57804.7630703725</v>
+        <v>74777.47740576498</v>
       </c>
       <c r="AE6" t="n">
-        <v>79091.02699902016</v>
+        <v>102313.8435360025</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.203062786294318e-06</v>
+        <v>1.046006459588557e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>71542.69038720554</v>
+        <v>92549.15390733341</v>
       </c>
     </row>
     <row r="7">
@@ -19149,28 +19149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.07582268015548</v>
+        <v>74.04853701554796</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.09365859854537</v>
+        <v>101.3164751355277</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.64050942705639</v>
+        <v>91.64697294718425</v>
       </c>
       <c r="AD7" t="n">
-        <v>57075.82268015548</v>
+        <v>74048.53701554796</v>
       </c>
       <c r="AE7" t="n">
-        <v>78093.65859854537</v>
+        <v>101316.4751355277</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.314890865833726e-06</v>
+        <v>1.062245786806997e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.224537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>70640.50942705639</v>
+        <v>91646.97294718426</v>
       </c>
     </row>
   </sheetData>
@@ -19446,28 +19446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.66661080142342</v>
+        <v>64.92826185763484</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.74658333339637</v>
+        <v>88.83771230633427</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.04445327492553</v>
+        <v>80.35916572835144</v>
       </c>
       <c r="AD2" t="n">
-        <v>43666.61080142342</v>
+        <v>64928.26185763483</v>
       </c>
       <c r="AE2" t="n">
-        <v>59746.58333339637</v>
+        <v>88837.71230633427</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.239926453264154e-06</v>
+        <v>1.373546647066877e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>54044.45327492553</v>
+        <v>80359.16572835144</v>
       </c>
     </row>
   </sheetData>
@@ -19743,28 +19743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.70586019971217</v>
+        <v>78.44814227258784</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.85097137743897</v>
+        <v>107.3362091450919</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.70729972319126</v>
+        <v>97.09219199162733</v>
       </c>
       <c r="AD2" t="n">
-        <v>54705.86019971217</v>
+        <v>78448.14227258785</v>
       </c>
       <c r="AE2" t="n">
-        <v>74850.97137743897</v>
+        <v>107336.2091450919</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.2592484652717e-06</v>
+        <v>1.104789830802112e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>67707.29972319126</v>
+        <v>97092.19199162733</v>
       </c>
     </row>
     <row r="3">
@@ -19849,28 +19849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.91180050232479</v>
+        <v>66.71163110793576</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.65977151737555</v>
+        <v>91.27779679129335</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.01154069187588</v>
+        <v>82.5663719747469</v>
       </c>
       <c r="AD3" t="n">
-        <v>50911.8005023248</v>
+        <v>66711.63110793575</v>
       </c>
       <c r="AE3" t="n">
-        <v>69659.77151737554</v>
+        <v>91277.79679129335</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.291975646475665e-06</v>
+        <v>1.261961264352757e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.10300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>63011.54069187588</v>
+        <v>82566.3719747469</v>
       </c>
     </row>
     <row r="4">
@@ -19955,28 +19955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.78096914661415</v>
+        <v>66.5807997522251</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.48076228462027</v>
+        <v>91.09878755853808</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.84961584905368</v>
+        <v>82.4044471319247</v>
       </c>
       <c r="AD4" t="n">
-        <v>50780.96914661415</v>
+        <v>66580.79975222511</v>
       </c>
       <c r="AE4" t="n">
-        <v>69480.76228462027</v>
+        <v>91098.78755853808</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.326542936425453e-06</v>
+        <v>1.267222083099713e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.085648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>62849.61584905368</v>
+        <v>82404.44713192469</v>
       </c>
     </row>
   </sheetData>
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.82963520705052</v>
+        <v>85.16216702166371</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.17574343944692</v>
+        <v>116.52263400864</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.18774266209526</v>
+        <v>105.4018773594295</v>
       </c>
       <c r="AD2" t="n">
-        <v>68829.63520705051</v>
+        <v>85162.1670216637</v>
       </c>
       <c r="AE2" t="n">
-        <v>94175.74343944692</v>
+        <v>116522.63400864</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.345896135871863e-06</v>
+        <v>9.473856204391881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>85187.74266209526</v>
+        <v>105401.8773594295</v>
       </c>
     </row>
     <row r="3">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.00638805132871</v>
+        <v>71.25357901137028</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.26216684237359</v>
+        <v>97.49229028936901</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.07925127006912</v>
+        <v>88.18776293546458</v>
       </c>
       <c r="AD3" t="n">
-        <v>55006.38805132871</v>
+        <v>71253.57901137028</v>
       </c>
       <c r="AE3" t="n">
-        <v>75262.16684237358</v>
+        <v>97492.290289369</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.529971370557102e-06</v>
+        <v>1.124157478477932e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.351851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>68079.25127006911</v>
+        <v>88187.76293546458</v>
       </c>
     </row>
     <row r="4">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.2902180562802</v>
+        <v>69.53740901632177</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.9140273430727</v>
+        <v>95.14415079006811</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.95521490894627</v>
+        <v>86.06372657434174</v>
       </c>
       <c r="AD4" t="n">
-        <v>53290.2180562802</v>
+        <v>69537.40901632178</v>
       </c>
       <c r="AE4" t="n">
-        <v>72914.02734307271</v>
+        <v>95144.15079006812</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.912701616108802e-06</v>
+        <v>1.181295686128887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.137731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>65955.21490894628</v>
+        <v>86063.72657434174</v>
       </c>
     </row>
     <row r="5">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.04230672405509</v>
+        <v>69.28949768409667</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.57482412124641</v>
+        <v>94.80494756824183</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.64838476653625</v>
+        <v>85.75689643193174</v>
       </c>
       <c r="AD5" t="n">
-        <v>53042.3067240551</v>
+        <v>69289.49768409667</v>
       </c>
       <c r="AE5" t="n">
-        <v>72574.82412124641</v>
+        <v>94804.94756824183</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.976206989594309e-06</v>
+        <v>1.19077647124932e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.108796296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>65648.38476653626</v>
+        <v>85756.89643193173</v>
       </c>
     </row>
   </sheetData>
